--- a/biology/Botanique/Ctenolophonaceae/Ctenolophonaceae.xlsx
+++ b/biology/Botanique/Ctenolophonaceae/Ctenolophonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ctenolophonaceae (les Cténolophonacées) est une petite famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 1 à 3 espèces du genre Ctenolophon (en). 
 Ce sont des arbres tropicaux, originaires d'Afrique de l'Ouest et de Malaisie, source de bois d'œuvre.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Ctenolophon dérivé du grec κτένα / ktena, peigne, et λόφων / lofon, colline, mamelon, en référence à l'arille de la graine en forme de peigne.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[1] inclut le genre Ctenolophon dans la famille des Hugoniaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) inclut le genre Ctenolophon dans la famille des Hugoniaceae.
 La classification phylogénétique situe les Ctenolophonaceae dans l'ordre des Malpighiales.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 mai 2010)[2], Angiosperm Phylogeny Website                        (19 mai 2010)[3], DELTA Angio           (19 mai 2010)[4] et NCBI  (19 mai 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 mai 2010), Angiosperm Phylogeny Website                        (19 mai 2010), DELTA Angio           (19 mai 2010) et NCBI  (19 mai 2010) :
 genre Ctenolophon (en) Oliv. (1873)</t>
         </is>
       </c>
@@ -606,13 +624,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 mai 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 mai 2010) :
 genre Ctenolophon (en) Oliv. (1873)
 Ctenolophon englerianus Mildbr. (1924)
 Ctenolophon parvifolius Oliv. (1873)
-Selon NCBI  (19 mai 2010)[5] :
+Selon NCBI  (19 mai 2010) :
 genre Ctenolophon (en)
 Ctenolophon englerianus</t>
         </is>
